--- a/results/I3_N5_M3_T45_C100_DepCentral_s4_res_fix.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepCentral_s4_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>871.8646384127446</v>
+        <v>442.3346384127427</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01700019836425781</v>
+        <v>0.006000041961669922</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.458899825088896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.458899825088896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.9200000000019</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>527.61</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,39 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +758,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +791,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -915,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>31.61595173195241</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>36.65075183719856</v>
       </c>
     </row>
     <row r="6">
@@ -947,7 +914,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.38078477376724</v>
+        <v>39.82590537679314</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +922,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.81602556806575</v>
+        <v>37.38078477376724</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +930,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>41.79636161641812</v>
+        <v>32.81602556806575</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,48 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.995</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1084,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.665</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.505</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1117,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>108.53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1139,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>115.89</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>114.45</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>117.09</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.24</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>52.09500000000072</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1194,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>53.22500000000074</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1205,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>52.15</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1216,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>49.64500000000072</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1227,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>48.49500000000073</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>46.63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>48.8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>46.7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>47.43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>111.9900000000005</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>117.0450000000004</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>115.3250000000004</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>112.33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>110.395</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>108.53</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>115.89</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>114.45</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>117.09</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>110.24</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.995</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.51</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.665</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.505</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>111.9900000000005</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>117.0450000000004</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>115.3250000000004</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>112.33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>110.395</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8.530000000000001</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1635,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>15.89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1571,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>14.45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1582,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>17.09</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1593,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.24000000000001</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7">
@@ -1679,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.995000000000005</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8">
@@ -1690,7 +1615,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510000000000005</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1701,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.665000000000006</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.504999999999995</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1723,7 +1648,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1734,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>11.99000000000046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1745,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>17.045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1756,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>15.32500000000044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>12.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1778,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10.395</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1891,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>4.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>4.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>7.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1990,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>15.845</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.515</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>15.96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>26.635</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
@@ -2045,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2056,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2067,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2078,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2089,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,7 +2055,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2141,7 +2066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2152,7 +2077,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2163,7 +2088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2177,7 +2102,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2185,10 +2110,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2196,10 +2121,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2207,10 +2132,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2218,10 +2143,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2229,56 +2154,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="n">
         <v>1</v>
       </c>
     </row>
